--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfb-Flt1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H2">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I2">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J2">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N2">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O2">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P2">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q2">
-        <v>182.5763494375</v>
+        <v>251.848323328216</v>
       </c>
       <c r="R2">
-        <v>1643.1871449375</v>
+        <v>2266.634909953944</v>
       </c>
       <c r="S2">
-        <v>0.09760055468785553</v>
+        <v>0.09061967567417546</v>
       </c>
       <c r="T2">
-        <v>0.09760055468785553</v>
+        <v>0.09061967567417548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H3">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I3">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J3">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.167287</v>
       </c>
       <c r="O3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q3">
-        <v>0.7036678402966668</v>
+        <v>0.7176641302208889</v>
       </c>
       <c r="R3">
-        <v>6.333010562670001</v>
+        <v>6.458977171988</v>
       </c>
       <c r="S3">
-        <v>0.0003761624752633701</v>
+        <v>0.0002582288016222024</v>
       </c>
       <c r="T3">
-        <v>0.0003761624752633701</v>
+        <v>0.0002582288016222024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H4">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I4">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J4">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N4">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O4">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P4">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q4">
-        <v>6.327580932906669</v>
+        <v>7.424607380248446</v>
       </c>
       <c r="R4">
-        <v>56.94822839616002</v>
+        <v>66.82146642223601</v>
       </c>
       <c r="S4">
-        <v>0.003382559738907471</v>
+        <v>0.002671510788377857</v>
       </c>
       <c r="T4">
-        <v>0.003382559738907471</v>
+        <v>0.002671510788377857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.80847</v>
+        <v>1.844441333333333</v>
       </c>
       <c r="H5">
-        <v>5.425410000000001</v>
+        <v>5.533324</v>
       </c>
       <c r="I5">
-        <v>0.1042562806587584</v>
+        <v>0.09360395274144985</v>
       </c>
       <c r="J5">
-        <v>0.1042562806587585</v>
+        <v>0.09360395274144986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N5">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q5">
-        <v>5.419276272583336</v>
+        <v>0.1515694258217778</v>
       </c>
       <c r="R5">
-        <v>48.77348645325002</v>
+        <v>1.364124832396</v>
       </c>
       <c r="S5">
-        <v>0.002897003756732086</v>
+        <v>5.453747727432923E-05</v>
       </c>
       <c r="T5">
-        <v>0.002897003756732087</v>
+        <v>5.453747727432922E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.767257</v>
       </c>
       <c r="I6">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J6">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N6">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O6">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P6">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q6">
-        <v>631.5572965020833</v>
+        <v>854.188586990338</v>
       </c>
       <c r="R6">
-        <v>5684.015668518749</v>
+        <v>7687.697282913043</v>
       </c>
       <c r="S6">
-        <v>0.3376140592452071</v>
+        <v>0.30735282131209</v>
       </c>
       <c r="T6">
-        <v>0.3376140592452072</v>
+        <v>0.3073528213120901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.767257</v>
       </c>
       <c r="I7">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J7">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.167287</v>
       </c>
       <c r="O7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q7">
         <v>2.434086124639889</v>
@@ -883,10 +883,10 @@
         <v>21.906775121759</v>
       </c>
       <c r="S7">
-        <v>0.001301198959530028</v>
+        <v>0.0008758291191417472</v>
       </c>
       <c r="T7">
-        <v>0.001301198959530028</v>
+        <v>0.0008758291191417473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.767257</v>
       </c>
       <c r="I8">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J8">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N8">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O8">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P8">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q8">
-        <v>21.88799326800356</v>
+        <v>25.18188250484145</v>
       </c>
       <c r="R8">
-        <v>196.991939412032</v>
+        <v>226.636942543573</v>
       </c>
       <c r="S8">
-        <v>0.01170075034659674</v>
+        <v>0.009060906164858565</v>
       </c>
       <c r="T8">
-        <v>0.01170075034659674</v>
+        <v>0.009060906164858565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.767257</v>
       </c>
       <c r="I9">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946251</v>
       </c>
       <c r="J9">
-        <v>0.360637152397155</v>
+        <v>0.3174745301946252</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N9">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q9">
-        <v>18.74603957333612</v>
+        <v>0.5140747889947779</v>
       </c>
       <c r="R9">
-        <v>168.714356160025</v>
+        <v>4.626673100953</v>
       </c>
       <c r="S9">
-        <v>0.01002114384582115</v>
+        <v>0.0001849735985348041</v>
       </c>
       <c r="T9">
-        <v>0.01002114384582115</v>
+        <v>0.0001849735985348041</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H10">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I10">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J10">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N10">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O10">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P10">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q10">
-        <v>558.605872775</v>
+        <v>781.1743274952139</v>
       </c>
       <c r="R10">
-        <v>5027.452854974999</v>
+        <v>7030.568947456925</v>
       </c>
       <c r="S10">
-        <v>0.2986161307458782</v>
+        <v>0.2810809429545146</v>
       </c>
       <c r="T10">
-        <v>0.2986161307458782</v>
+        <v>0.2810809429545146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H11">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I11">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J11">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.167287</v>
       </c>
       <c r="O11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q11">
-        <v>2.152923909825333</v>
+        <v>2.226025517597444</v>
       </c>
       <c r="R11">
-        <v>19.376315188428</v>
+        <v>20.034229658377</v>
       </c>
       <c r="S11">
-        <v>0.001150896972401292</v>
+        <v>0.0008009650720772496</v>
       </c>
       <c r="T11">
-        <v>0.001150896972401292</v>
+        <v>0.0008009650720772496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H12">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I12">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J12">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N12">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O12">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P12">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q12">
-        <v>19.35970283374933</v>
+        <v>23.02938769071323</v>
       </c>
       <c r="R12">
-        <v>174.237325503744</v>
+        <v>207.264489216419</v>
       </c>
       <c r="S12">
-        <v>0.01034919222006248</v>
+        <v>0.008286398797213958</v>
       </c>
       <c r="T12">
-        <v>0.01034919222006248</v>
+        <v>0.008286398797213957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.533148</v>
+        <v>5.721023666666667</v>
       </c>
       <c r="H13">
-        <v>16.599444</v>
+        <v>17.163071</v>
       </c>
       <c r="I13">
-        <v>0.3189798176438911</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="J13">
-        <v>0.3189798176438912</v>
+        <v>0.2903374692647943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N13">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O13">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P13">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q13">
-        <v>16.58067740636667</v>
+        <v>0.4701327478398889</v>
       </c>
       <c r="R13">
-        <v>149.2260966573</v>
+        <v>4.231194730558999</v>
       </c>
       <c r="S13">
-        <v>0.008863597705549234</v>
+        <v>0.0001691624409884906</v>
       </c>
       <c r="T13">
-        <v>0.008863597705549236</v>
+        <v>0.0001691624409884906</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H14">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I14">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J14">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N14">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O14">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P14">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q14">
-        <v>378.4868657666667</v>
+        <v>803.3623539218739</v>
       </c>
       <c r="R14">
-        <v>3406.3817919</v>
+        <v>7230.261185296866</v>
       </c>
       <c r="S14">
-        <v>0.2023292072314117</v>
+        <v>0.2890646044379925</v>
       </c>
       <c r="T14">
-        <v>0.2023292072314117</v>
+        <v>0.2890646044379925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H15">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I15">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J15">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.167287</v>
       </c>
       <c r="O15">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P15">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q15">
-        <v>1.458726917452444</v>
+        <v>2.289252266445222</v>
       </c>
       <c r="R15">
-        <v>13.128542257072</v>
+        <v>20.603270398007</v>
       </c>
       <c r="S15">
-        <v>0.0007797973654315042</v>
+        <v>0.0008237152234334339</v>
       </c>
       <c r="T15">
-        <v>0.0007797973654315043</v>
+        <v>0.0008237152234334339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H16">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I16">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J16">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N16">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O16">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P16">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q16">
-        <v>13.11728645336178</v>
+        <v>23.68350117689211</v>
       </c>
       <c r="R16">
-        <v>118.055578080256</v>
+        <v>213.151510592029</v>
       </c>
       <c r="S16">
-        <v>0.007012159229779443</v>
+        <v>0.008521760904010221</v>
       </c>
       <c r="T16">
-        <v>0.007012159229779445</v>
+        <v>0.008521760904010221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.749018666666667</v>
+        <v>5.883520333333333</v>
       </c>
       <c r="H17">
-        <v>11.247056</v>
+        <v>17.650561</v>
       </c>
       <c r="I17">
-        <v>0.2161267493001953</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="J17">
-        <v>0.2161267493001954</v>
+        <v>0.2985840477991308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N17">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O17">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P17">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q17">
-        <v>11.23434057835556</v>
+        <v>0.4834861280854444</v>
       </c>
       <c r="R17">
-        <v>101.1090652052</v>
+        <v>4.351375152769</v>
       </c>
       <c r="S17">
-        <v>0.006005585473572715</v>
+        <v>0.0001739672336947306</v>
       </c>
       <c r="T17">
-        <v>0.006005585473572716</v>
+        <v>0.0001739672336947306</v>
       </c>
     </row>
   </sheetData>
